--- a/doc/log/log_201508030322_wangyudong.xlsx
+++ b/doc/log/log_201508030322_wangyudong.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16290" windowHeight="5580"/>
+    <workbookView windowWidth="15660" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>日期</t>
   </si>
@@ -96,10 +96,22 @@
 3：完成dao模块</t>
   </si>
   <si>
-    <t>均完成</t>
+    <t>dao模块测试有点问题</t>
   </si>
   <si>
     <t>明天完善service模块</t>
+  </si>
+  <si>
+    <t>9:00-11:25</t>
+  </si>
+  <si>
+    <t>1：完成service</t>
+  </si>
+  <si>
+    <t>测试有些问题</t>
+  </si>
+  <si>
+    <t>解决测试问题</t>
   </si>
   <si>
     <t>周次</t>
@@ -114,8 +126,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -129,6 +141,74 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -136,28 +216,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,28 +246,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -201,71 +277,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,187 +292,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,6 +490,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -494,15 +517,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,10 +538,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -551,8 +563,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,142 +601,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1047,13 +1056,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1151,7 +1160,7 @@
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
@@ -1159,6 +1168,23 @@
       </c>
       <c r="E6" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1185,13 +1211,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030322_wangyudong.xlsx
+++ b/doc/log/log_201508030322_wangyudong.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15660" windowHeight="5790"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>日期</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>解决测试问题</t>
+  </si>
+  <si>
+    <t>21:00-9:00</t>
+  </si>
+  <si>
+    <t>改测试错误</t>
+  </si>
+  <si>
+    <t>未完成</t>
   </si>
   <si>
     <t>周次</t>
@@ -139,11 +148,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,13 +172,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -170,7 +196,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -178,7 +204,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,14 +212,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,8 +234,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -216,68 +286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,49 +301,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,79 +457,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,49 +481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,26 +492,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -521,6 +510,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -532,15 +556,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,17 +584,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,10 +598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,31 +610,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,100 +646,97 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,13 +1065,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1185,6 +1194,20 @@
       </c>
       <c r="E7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>43244</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1211,13 +1234,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030322_wangyudong.xlsx
+++ b/doc/log/log_201508030322_wangyudong.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="13095" windowHeight="6390"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>日期</t>
   </si>
@@ -121,6 +121,21 @@
   </si>
   <si>
     <t>未完成</t>
+  </si>
+  <si>
+    <t>19:00-20:00</t>
+  </si>
+  <si>
+    <t>修改测试和错误</t>
+  </si>
+  <si>
+    <t>解决了一部分</t>
+  </si>
+  <si>
+    <t>发现了环境不知道怎么出了问题</t>
+  </si>
+  <si>
+    <t>环境没修好</t>
   </si>
   <si>
     <t>周次</t>
@@ -148,11 +163,123 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,24 +291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,104 +301,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,19 +316,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,163 +436,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,6 +507,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -512,30 +557,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -545,17 +566,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,34 +607,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,133 +625,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,19 +1080,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="36.625" customWidth="1"/>
     <col min="4" max="4" width="31.375" customWidth="1"/>
-    <col min="5" max="5" width="24.875" customWidth="1"/>
+    <col min="5" max="5" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1208,6 +1223,37 @@
       </c>
       <c r="D8" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>43251</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1234,13 +1280,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030322_wangyudong.xlsx
+++ b/doc/log/log_201508030322_wangyudong.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13095" windowHeight="6390"/>
+    <workbookView windowWidth="11775" windowHeight="5370"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>日期</t>
   </si>
@@ -136,6 +136,19 @@
   </si>
   <si>
     <t>环境没修好</t>
+  </si>
+  <si>
+    <t>12:00-14:00</t>
+  </si>
+  <si>
+    <t>1：修改改进代码
+2：完成web层</t>
+  </si>
+  <si>
+    <t>test还是差点</t>
+  </si>
+  <si>
+    <t>还有很多地方需要看懂</t>
   </si>
   <si>
     <t>周次</t>
@@ -149,9 +162,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -163,23 +176,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,65 +238,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -260,9 +268,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,25 +297,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,187 +329,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,36 +520,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -566,11 +549,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,23 +576,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,10 +626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,139 +638,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1080,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1254,6 +1270,23 @@
       </c>
       <c r="D10" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="11" ht="57" customHeight="1" spans="1:5">
+      <c r="A11" s="1">
+        <v>43253</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1280,13 +1313,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030322_wangyudong.xlsx
+++ b/doc/log/log_201508030322_wangyudong.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11775" windowHeight="5370"/>
+    <workbookView windowWidth="14490" windowHeight="6285"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>日期</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>还有很多地方需要看懂</t>
+  </si>
+  <si>
+    <t>14:30-16:30</t>
+  </si>
+  <si>
+    <t>完善service包</t>
+  </si>
+  <si>
+    <t>解决了一些问题</t>
   </si>
   <si>
     <t>周次</t>
@@ -162,9 +171,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -176,82 +185,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -260,6 +193,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -276,7 +217,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,24 +291,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,187 +338,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,6 +529,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -538,13 +571,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,55 +614,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,142 +647,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1096,10 +1102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1279,7 +1285,7 @@
       <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D11" t="s">
@@ -1287,6 +1293,20 @@
       </c>
       <c r="E11" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>43254</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1313,13 +1333,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030322_wangyudong.xlsx
+++ b/doc/log/log_201508030322_wangyudong.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14490" windowHeight="6285"/>
+    <workbookView windowWidth="13815" windowHeight="3975"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>日期</t>
   </si>
@@ -158,6 +158,18 @@
   </si>
   <si>
     <t>解决了一些问题</t>
+  </si>
+  <si>
+    <t>13:00-15:00</t>
+  </si>
+  <si>
+    <t>完成service包与测试</t>
+  </si>
+  <si>
+    <t>已完成，并在数据库中生成数据</t>
+  </si>
+  <si>
+    <t>进一步学习web包</t>
   </si>
   <si>
     <t>周次</t>
@@ -185,6 +197,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -193,86 +295,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,37 +320,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,49 +350,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,25 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,103 +512,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,10 +559,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -571,17 +600,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,6 +614,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,36 +641,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,133 +659,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,10 +1114,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1307,6 +1319,23 @@
       </c>
       <c r="D12" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1333,13 +1362,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030322_wangyudong.xlsx
+++ b/doc/log/log_201508030322_wangyudong.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13815" windowHeight="3975"/>
+    <workbookView windowWidth="13590" windowHeight="3975"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>日期</t>
   </si>
@@ -170,6 +170,18 @@
   </si>
   <si>
     <t>进一步学习web包</t>
+  </si>
+  <si>
+    <t>17:40-19:40</t>
+  </si>
+  <si>
+    <t>完善web包</t>
+  </si>
+  <si>
+    <t>完善工作已经完成</t>
+  </si>
+  <si>
+    <t>测试还有些问题</t>
   </si>
   <si>
     <t>周次</t>
@@ -183,10 +195,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -197,6 +209,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -204,45 +254,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,32 +308,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,47 +331,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,187 +362,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,16 +571,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -580,6 +592,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -600,20 +621,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,17 +645,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,10 +659,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,133 +671,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1336,6 +1348,23 @@
       </c>
       <c r="E13" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>43257</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1362,13 +1391,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030322_wangyudong.xlsx
+++ b/doc/log/log_201508030322_wangyudong.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13590" windowHeight="3975"/>
+    <workbookView windowWidth="20385" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:E4"/>
+  <oleSize ref="A7:E10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>日期</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>测试还有些问题</t>
+  </si>
+  <si>
+    <t>8:30-10:30</t>
+  </si>
+  <si>
+    <t>还是有些问题</t>
   </si>
   <si>
     <t>周次</t>
@@ -195,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -206,59 +212,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,6 +223,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -277,24 +290,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,6 +322,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -315,37 +352,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -368,37 +374,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,139 +506,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,6 +559,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -571,37 +586,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,16 +616,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -659,145 +665,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1365,6 +1371,20 @@
       </c>
       <c r="E14" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>43258</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1391,13 +1411,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030322_wangyudong.xlsx
+++ b/doc/log/log_201508030322_wangyudong.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9390"/>
+    <workbookView windowWidth="13185" windowHeight="6375"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>日期</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>还是有些问题</t>
+  </si>
+  <si>
+    <t>16:00-18：30</t>
+  </si>
+  <si>
+    <t>继续完成web包</t>
+  </si>
+  <si>
+    <t>不知道哪里错了</t>
   </si>
   <si>
     <t>周次</t>
@@ -203,8 +212,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -212,6 +221,64 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,11 +290,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,118 +338,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -368,187 +377,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,6 +568,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -586,6 +610,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -597,32 +650,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,34 +668,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,133 +686,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1132,10 +1141,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1385,6 +1394,20 @@
       </c>
       <c r="E15" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>43259</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1411,13 +1434,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030322_wangyudong.xlsx
+++ b/doc/log/log_201508030322_wangyudong.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13185" windowHeight="6375"/>
+    <workbookView windowWidth="15180" windowHeight="4860"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>日期</t>
   </si>
@@ -197,6 +197,18 @@
   </si>
   <si>
     <t>不知道哪里错了</t>
+  </si>
+  <si>
+    <t>8:00-10:00</t>
+  </si>
+  <si>
+    <t>修改完善WEB包</t>
+  </si>
+  <si>
+    <t>网页不报404</t>
+  </si>
+  <si>
+    <t>无法导入数据</t>
   </si>
   <si>
     <t>周次</t>
@@ -224,6 +236,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -232,51 +259,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,9 +288,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,13 +326,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -337,6 +342,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -344,23 +373,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -377,85 +389,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,78 +545,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -546,18 +570,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,6 +580,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -582,15 +603,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,15 +629,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,16 +671,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,133 +698,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1141,10 +1153,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1408,6 +1420,23 @@
       </c>
       <c r="E16" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>43264</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1434,13 +1463,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030322_wangyudong.xlsx
+++ b/doc/log/log_201508030322_wangyudong.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15180" windowHeight="4860"/>
+    <workbookView windowWidth="13215" windowHeight="3945"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>日期</t>
   </si>
@@ -209,6 +209,15 @@
   </si>
   <si>
     <t>无法导入数据</t>
+  </si>
+  <si>
+    <t>16：00-17:00</t>
+  </si>
+  <si>
+    <t>一定要完成web</t>
+  </si>
+  <si>
+    <t>完成了</t>
   </si>
   <si>
     <t>周次</t>
@@ -236,8 +245,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -259,6 +335,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -266,15 +350,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,90 +367,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -389,67 +398,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,115 +560,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,11 +592,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,6 +618,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,6 +648,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -636,23 +669,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,25 +689,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -698,133 +707,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,16 +1162,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
     <col min="3" max="3" width="36.625" customWidth="1"/>
     <col min="4" max="4" width="31.375" customWidth="1"/>
     <col min="5" max="5" width="27.75" customWidth="1"/>
@@ -1437,6 +1446,23 @@
       </c>
       <c r="E17" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>43264</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1463,13 +1489,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
